--- a/difference-between-two-dataframes.xlsx
+++ b/difference-between-two-dataframes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CAT\Documents\GitHub\data_science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D5BD3B9-20C0-4992-BEB8-05727A26BBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8800FE-DF70-46ED-9568-AA235B40C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0E8472B3-893E-4EFD-BB41-2AE27EB330D4}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -291,6 +291,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -321,18 +324,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -9483,7 +9493,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A42D3E15-BDC4-49D8-95D8-1DB0DD938BE3}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A42D3E15-BDC4-49D8-95D8-1DB0DD938BE3}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L1:AO47" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -9812,6 +9822,27 @@
   <dataFields count="1">
     <dataField name="Sum of REVENUE_VALUE" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="2">
+    <format dxfId="1">
+      <pivotArea field="6" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea field="6" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="2" selected="0">
+            <x v="23"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -9849,14 +9880,14 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{53EDA1C6-86A8-498C-A59E-58C539F79F09}" uniqueName="1" name="YEAR" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{386946BA-EFAD-44A8-AA9E-81FF07C95FC1}" uniqueName="2" name="MONTH" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{E99DD677-0EBE-4840-ADCD-55C91116152B}" uniqueName="3" name="CUSTOMER_GROUP_KEY" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E99DD677-0EBE-4840-ADCD-55C91116152B}" uniqueName="3" name="CUSTOMER_GROUP_KEY" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{51E27471-40BF-46CD-AEAC-87A2B2EBF96D}" uniqueName="4" name="PRODUCT_KEY" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{42E49D51-9991-464A-8204-0774F43C8C70}" uniqueName="5" name="SUB_PRODUCT_KEY" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{75DE4691-9039-4DE2-A5F7-38CC93095411}" uniqueName="6" name="GL_CODE" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{6746D0C7-9CDB-4D1F-90D4-B5306D5B6EE3}" uniqueName="7" name="COST_CENTER" queryTableFieldId="7" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{6746D0C7-9CDB-4D1F-90D4-B5306D5B6EE3}" uniqueName="7" name="COST_CENTER" queryTableFieldId="7" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{A3764CB5-BBF0-4D70-9B63-B745CAA573FF}" uniqueName="8" name="REVENUE_VALUE" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{08599FBC-A36F-4632-8CE6-B2C34F906548}" uniqueName="9" name="CCTR_SERVICE_SEC_NT" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{6382DE05-2066-4C13-B2D5-6B2865B60977}" uniqueName="10" name="PROJECT_ID" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{08599FBC-A36F-4632-8CE6-B2C34F906548}" uniqueName="9" name="CCTR_SERVICE_SEC_NT" queryTableFieldId="9" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{6382DE05-2066-4C13-B2D5-6B2865B60977}" uniqueName="10" name="PROJECT_ID" queryTableFieldId="10" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10161,8 +10192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF2AA18-1080-47DB-8D62-AF4FD5E9522C}">
   <dimension ref="A1:AO751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -10193,8 +10224,8 @@
     <col min="25" max="25" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="26" max="32" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="33" max="34" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="38" max="40" width="7.90625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -13747,13 +13778,13 @@
       <c r="AH47" s="1">
         <v>1180</v>
       </c>
-      <c r="AI47" s="1">
+      <c r="AI47" s="4">
         <v>17237692.859999999</v>
       </c>
-      <c r="AJ47" s="1">
+      <c r="AJ47" s="4">
         <v>23632250.479999997</v>
       </c>
-      <c r="AK47" s="1">
+      <c r="AK47" s="4">
         <v>6394557.6200000001</v>
       </c>
       <c r="AL47" s="1">
